--- a/08 Material Review I/Stronger/Stronger.xlsx
+++ b/08 Material Review I/Stronger/Stronger.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsutoyo\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhiosutoyo/Documents/GitHub/Teaching-Algorithm-and-Programming/08 Material Review I/Stronger/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ED8D2F0-9047-4A58-B5A3-ACD4CD833682}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08E7AF6-D245-F645-8284-C9A6D87D2F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{5563D138-D4AF-4BC2-ABA8-6A8CF3D2F49C}"/>
+    <workbookView xWindow="160" yWindow="840" windowWidth="29920" windowHeight="17180" xr2:uid="{5563D138-D4AF-4BC2-ABA8-6A8CF3D2F49C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>base</t>
   </si>
@@ -94,6 +94,30 @@
   </si>
   <si>
     <t>hans:</t>
+  </si>
+  <si>
+    <t>total # of hits</t>
+  </si>
+  <si>
+    <t>total bonus</t>
+  </si>
+  <si>
+    <t>Inputs (Hits)</t>
+  </si>
+  <si>
+    <t>Base Damage</t>
+  </si>
+  <si>
+    <t>Bonus Damage</t>
+  </si>
+  <si>
+    <t>Expected Output</t>
+  </si>
+  <si>
+    <t>Total Base Damage</t>
+  </si>
+  <si>
+    <t>Total Bonus Damage</t>
   </si>
 </sst>
 </file>
@@ -132,15 +156,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -148,21 +178,60 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,9 +250,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -221,7 +290,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -327,7 +396,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,7 +538,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -477,416 +546,598 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83D0D686-1387-4F45-A928-D988D3E52FF8}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14" style="3" customWidth="1"/>
+    <col min="2" max="4" width="14.83203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" style="3"/>
+    <col min="6" max="9" width="13.5" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:9" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7">
+        <v>100</v>
+      </c>
+      <c r="C2" s="7">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="6">
+        <f>SUM(B2:C2)</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="7">
+        <f>A2*B2</f>
+        <v>100</v>
+      </c>
+      <c r="G2" s="7">
+        <f>D2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <f t="shared" ref="H2:H10" si="0">(A2*(A2-1))/2</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="6">
+        <f>F2+(H2*50)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>SUM(B2:C2)</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>100</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="7">
+        <v>100</v>
+      </c>
+      <c r="C3" s="7">
         <f>C2+50</f>
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <f>SUM(B3:C3)+D2</f>
         <v>250</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="7">
+        <f t="shared" ref="F3:F11" si="1">A3*B3</f>
+        <v>200</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" ref="G3:G11" si="2">D3-F3</f>
+        <v>50</v>
+      </c>
+      <c r="H3" s="8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <f t="shared" ref="I3:I11" si="3">F3+(H3*50)</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4">
-        <f t="shared" ref="C4:C6" si="0">C3+50</f>
-        <v>100</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D6" si="1">SUM(B4:C4)+D3</f>
+      <c r="B4" s="7">
+        <v>100</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C6" si="4">C3+50</f>
+        <v>100</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D6" si="5">SUM(B4:C4)+D3</f>
         <v>450</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F4" s="7">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I4" s="6">
+        <f t="shared" si="3"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="7">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="7">
+        <v>100</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="D5" s="6">
+        <f t="shared" si="5"/>
+        <v>700</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="H5" s="8">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" si="3"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="4"/>
+        <v>200</v>
+      </c>
+      <c r="D6" s="6">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I6" s="6">
+        <f t="shared" si="3"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7">
+        <v>100</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" ref="C7:C11" si="6">C6+50</f>
+        <v>250</v>
+      </c>
+      <c r="D7" s="6">
+        <f t="shared" ref="D7:D11" si="7">SUM(B7:C7)+D6</f>
+        <v>1350</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="1"/>
+        <v>600</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="2"/>
+        <v>750</v>
+      </c>
+      <c r="H7" s="8">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I7" s="6">
+        <f t="shared" si="3"/>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7">
+        <v>100</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="D8" s="6">
+        <f t="shared" si="7"/>
+        <v>1750</v>
+      </c>
+      <c r="F8" s="7">
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>100</v>
-      </c>
-      <c r="C6">
+      <c r="G8" s="7">
+        <f t="shared" si="2"/>
+        <v>1050</v>
+      </c>
+      <c r="H8" s="8">
         <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="D6">
+        <v>21</v>
+      </c>
+      <c r="I8" s="6">
+        <f t="shared" si="3"/>
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7">
+        <v>100</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="6"/>
+        <v>350</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" si="7"/>
+        <v>2200</v>
+      </c>
+      <c r="F9" s="7">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="G9" s="7">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I9" s="6">
+        <f t="shared" si="3"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>100</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="6"/>
+        <v>400</v>
+      </c>
+      <c r="D10" s="6">
+        <f t="shared" si="7"/>
+        <v>2700</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>1800</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="3"/>
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7">
+        <v>100</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" si="7"/>
+        <v>3250</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <f t="shared" ref="C7:C11" si="2">C6+50</f>
-        <v>250</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D11" si="3">SUM(B7:C7)+D6</f>
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
+      <c r="G11" s="7">
         <f t="shared" si="2"/>
-        <v>300</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="3"/>
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="3"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>100</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="2"/>
-        <v>400</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="3"/>
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>100</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="2"/>
-        <v>450</v>
-      </c>
-      <c r="D11">
+        <v>2250</v>
+      </c>
+      <c r="H11" s="8">
+        <f>(A11*(A11-1))/2</f>
+        <v>45</v>
+      </c>
+      <c r="I11" s="6">
         <f t="shared" si="3"/>
         <v>3250</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="C17" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="C19" s="4">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>1</v>
       </c>
-      <c r="B23">
-        <v>100</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="3">
+        <v>100</v>
+      </c>
+      <c r="C23" s="3">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <f>SUM(B23:C23)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>2</v>
       </c>
-      <c r="B24">
-        <v>100</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="3">
+        <v>100</v>
+      </c>
+      <c r="C24" s="3">
         <f>C23+50</f>
         <v>50</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <f>SUM(B24:C24)+D23</f>
         <v>250</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B25">
-        <v>100</v>
-      </c>
-      <c r="C25">
-        <f t="shared" ref="C25:C32" si="4">C24+50</f>
-        <v>100</v>
-      </c>
-      <c r="D25">
-        <f t="shared" ref="D25:D32" si="5">SUM(B25:C25)+D24</f>
+      <c r="B25" s="3">
+        <v>100</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" ref="C25:C32" si="8">C24+50</f>
+        <v>100</v>
+      </c>
+      <c r="D25" s="3">
+        <f t="shared" ref="D25:D32" si="9">SUM(B25:C25)+D24</f>
         <v>450</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>4</v>
       </c>
-      <c r="B26">
-        <v>100</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="4"/>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="D26">
-        <f t="shared" si="5"/>
+      <c r="D26" s="3">
+        <f t="shared" si="9"/>
         <v>700</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>5</v>
       </c>
-      <c r="B27">
-        <v>100</v>
-      </c>
-      <c r="C27">
-        <f t="shared" si="4"/>
+      <c r="B27" s="3">
+        <v>100</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="8"/>
         <v>200</v>
       </c>
-      <c r="D27">
-        <f t="shared" si="5"/>
+      <c r="D27" s="3">
+        <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>6</v>
       </c>
-      <c r="B28">
-        <v>100</v>
-      </c>
-      <c r="C28">
-        <f t="shared" si="4"/>
+      <c r="B28" s="3">
+        <v>100</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="8"/>
         <v>250</v>
       </c>
-      <c r="D28">
-        <f t="shared" si="5"/>
+      <c r="D28" s="3">
+        <f t="shared" si="9"/>
         <v>1350</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>7</v>
       </c>
-      <c r="B29">
-        <v>100</v>
-      </c>
-      <c r="C29">
-        <f t="shared" si="4"/>
+      <c r="B29" s="3">
+        <v>100</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="8"/>
         <v>300</v>
       </c>
-      <c r="D29">
-        <f t="shared" si="5"/>
+      <c r="D29" s="3">
+        <f t="shared" si="9"/>
         <v>1750</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>8</v>
       </c>
-      <c r="B30">
-        <v>100</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="4"/>
+      <c r="B30" s="3">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
-      <c r="D30">
-        <f t="shared" si="5"/>
+      <c r="D30" s="3">
+        <f t="shared" si="9"/>
         <v>2200</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>9</v>
       </c>
-      <c r="B31">
-        <v>100</v>
-      </c>
-      <c r="C31">
-        <f t="shared" si="4"/>
+      <c r="B31" s="3">
+        <v>100</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="8"/>
         <v>400</v>
       </c>
-      <c r="D31">
-        <f t="shared" si="5"/>
+      <c r="D31" s="3">
+        <f t="shared" si="9"/>
         <v>2700</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>10</v>
       </c>
-      <c r="B32">
-        <v>100</v>
-      </c>
-      <c r="C32">
-        <f t="shared" si="4"/>
+      <c r="B32" s="3">
+        <v>100</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="8"/>
         <v>450</v>
       </c>
-      <c r="D32">
-        <f t="shared" si="5"/>
+      <c r="D32" s="3">
+        <f t="shared" si="9"/>
         <v>3250</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <f>($A$34*(2*100+($A$34-1)*50))/2</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <f>$A$34 * (50*$A$34 + 150) / 2</f>
         <v>1000</v>
       </c>
@@ -895,7 +1146,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="D23" formulaRange="1"/>
+    <ignoredError sqref="D23 D2" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
 </file>